--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_7_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_7_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1224343.775119992</v>
+        <v>1240988.894423681</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111177</v>
+        <v>713587.7684111175</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7372633.889161932</v>
+        <v>7372633.889161933</v>
       </c>
     </row>
     <row r="11">
@@ -674,10 +676,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>40.23748444544581</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -747,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>48.75124789143251</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>41.71305044180762</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>178.1573130319831</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,67 +904,67 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,25 +1025,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>160.4442220756123</v>
+        <v>124.3991006813875</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1196,10 +1198,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>21.36726813225073</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>111.1751113141405</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>47.74806282379132</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>279.4451114661569</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>91.40461057598311</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
         <v>78.54202280713804</v>
@@ -1500,13 +1502,13 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1515,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>105.9588595871327</v>
       </c>
     </row>
     <row r="13">
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>103.3249685652703</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>96.06064116356413</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1607,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>26.50533691882911</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>241.9189633854832</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G14" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1683,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>1.723501803628053</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>181.6683644804151</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>103.3249685652704</v>
+        <v>103.3249685652703</v>
       </c>
       <c r="I16" t="n">
         <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>125.178514901655</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>220.5164804230398</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>312.9379844122245</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>17.0585148267878</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>12.85956499965932</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>35.7600469113845</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2044,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.06064116356407</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>68.10852146420189</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>89.98174747814579</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2169,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>165.8272126914158</v>
@@ -2217,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>46.48200502537328</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>95.71876532882338</v>
       </c>
     </row>
     <row r="22">
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>99.78974769572875</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2281,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>96.06064116356384</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>30.33390080600439</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>141.6396260835077</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2400,16 +2402,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>25.46556451502994</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
@@ -2457,13 +2459,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>40.72484792479307</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2482,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>12.35168551462418</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>38.97640474817464</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2600,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>85.67417889435359</v>
       </c>
       <c r="S26" t="n">
-        <v>104.1189927826351</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2643,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>64.06181481010661</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>87.30283807112627</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>99.78974769572852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2985142370684</v>
+        <v>109.9367233488662</v>
       </c>
       <c r="V29" t="n">
-        <v>34.64146938979617</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>33.80262961720661</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2883,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
         <v>225.9206407878966</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>134.5658975014682</v>
       </c>
     </row>
     <row r="31">
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>98.6831373954543</v>
+        <v>39.19479062707025</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>127.712892838362</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>154.6394833928856</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>18.29564829107899</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>58.79002919115291</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
@@ -3168,13 +3170,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>145.6674229028285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>207.052590566553</v>
+        <v>289.7197420194591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3354,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>121.2379021560338</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>78.54202280713804</v>
@@ -3402,16 +3404,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>134.5658975014684</v>
       </c>
     </row>
     <row r="37">
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>104.4946504455962</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>53.28249029595613</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3585,16 +3587,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>75.35183675819137</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>109.1906224126114</v>
@@ -3627,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>38.1378562357441</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3661,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>9.637108967925595</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>12.35168551462418</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3752,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>86.03950120842646</v>
       </c>
       <c r="I41" t="n">
         <v>187.7594695105699</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1287817022241</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>81.12752273267782</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,16 +3872,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>48.98427584501924</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3913,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>103.3249685652703</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.6674229028285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>205.099098045714</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4022,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>86.47765048557247</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4056,25 +4058,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>87.30283807112627</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>48.98427584501901</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>158.2525819861381</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82.32787816303323</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C2" t="n">
-        <v>82.32787816303323</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D2" t="n">
-        <v>82.32787816303323</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E2" t="n">
-        <v>82.32787816303323</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F2" t="n">
-        <v>75.38237741382976</v>
+        <v>226.7653248291326</v>
       </c>
       <c r="G2" t="n">
-        <v>59.92506679248122</v>
+        <v>211.3080142077841</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>211.3080142077841</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>325.7766548071333</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y2" t="n">
-        <v>82.32787816303323</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>411.6785506544679</v>
+        <v>152.4692992915062</v>
       </c>
       <c r="C3" t="n">
-        <v>411.6785506544679</v>
+        <v>152.4692992915062</v>
       </c>
       <c r="D3" t="n">
-        <v>411.6785506544679</v>
+        <v>152.4692992915062</v>
       </c>
       <c r="E3" t="n">
-        <v>411.6785506544679</v>
+        <v>152.4692992915062</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>152.4692992915062</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>152.4692992915062</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4413,46 +4415,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W3" t="n">
-        <v>619.4388494194218</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X3" t="n">
-        <v>619.4388494194218</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y3" t="n">
-        <v>411.6785506544679</v>
+        <v>152.4692992915062</v>
       </c>
     </row>
     <row r="4">
@@ -4504,22 +4506,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9655401424092</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>953.9655401424092</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>953.9655401424092</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>749.627473042513</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>506.1786963984129</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4653,16 +4655,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>660.701031422288</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>425.5489231905453</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W6" t="n">
-        <v>182.1001465464452</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X6" t="n">
-        <v>182.1001465464452</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
         <v>19.28114311021272</v>
@@ -4768,7 +4770,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4844,7 +4846,7 @@
         <v>720.6083788665362</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y8" t="n">
         <v>477.1596022224361</v>
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>216.071404167611</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>41.61837488648402</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
         <v>656.0584510084244</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>678.3417187247995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>678.3417187247995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>678.3417187247995</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>434.8929420806995</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="10">
@@ -4978,31 +4980,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
         <v>19.28114311021272</v>
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1622.966287987609</v>
+        <v>314.7271151195067</v>
       </c>
       <c r="C11" t="n">
-        <v>1622.966287987609</v>
+        <v>314.7271151195067</v>
       </c>
       <c r="D11" t="n">
-        <v>1574.735921498931</v>
+        <v>314.7271151195067</v>
       </c>
       <c r="E11" t="n">
-        <v>1188.947668900687</v>
+        <v>314.7271151195067</v>
       </c>
       <c r="F11" t="n">
-        <v>779.107697186644</v>
+        <v>314.7271151195067</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H11" t="n">
         <v>32.45932575975218</v>
@@ -5039,16 +5041,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011315</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528321</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941452</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5063,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T11" t="n">
-        <v>1622.966287987609</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U11" t="n">
-        <v>1622.966287987609</v>
+        <v>1032.389842527199</v>
       </c>
       <c r="V11" t="n">
-        <v>1622.966287987609</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="W11" t="n">
-        <v>1622.966287987609</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="X11" t="n">
-        <v>1622.966287987609</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="Y11" t="n">
-        <v>1622.966287987609</v>
+        <v>701.3269551836285</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>825.1598589919724</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="C12" t="n">
-        <v>650.7068297108455</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="D12" t="n">
-        <v>501.7724200495942</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="E12" t="n">
-        <v>342.5349650441387</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="F12" t="n">
-        <v>250.2070755734487</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G12" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
         <v>111.7947023326189</v>
@@ -5133,7 +5135,7 @@
         <v>1335.799553443795</v>
       </c>
       <c r="O12" t="n">
-        <v>1622.966287987609</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P12" t="n">
         <v>1622.966287987609</v>
@@ -5148,22 +5150,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T12" t="n">
-        <v>1455.464052945775</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.464052945775</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V12" t="n">
-        <v>1455.464052945775</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W12" t="n">
-        <v>1201.226696217573</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X12" t="n">
-        <v>993.3751960120405</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="Y12" t="n">
-        <v>993.3751960120405</v>
+        <v>222.0882603251556</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975218</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975218</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975218</v>
@@ -5218,31 +5220,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C14" t="n">
-        <v>1596.193220392833</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D14" t="n">
-        <v>1237.927521786082</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E14" t="n">
-        <v>852.139269187838</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="F14" t="n">
-        <v>442.299297473795</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q14" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T14" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U14" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V14" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W14" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X14" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y14" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>321.5470195745888</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C15" t="n">
-        <v>321.5470195745888</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D15" t="n">
-        <v>172.6126099133376</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E15" t="n">
-        <v>172.6126099133376</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F15" t="n">
-        <v>172.6126099133376</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G15" t="n">
-        <v>34.2002366725078</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>236.9655055809358</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L15" t="n">
-        <v>534.697260562599</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M15" t="n">
-        <v>934.1153971668621</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N15" t="n">
-        <v>1335.799553443796</v>
+        <v>1335.799553443795</v>
       </c>
       <c r="O15" t="n">
         <v>1380.722538783602</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1622.96628798761</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.96628798761</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U15" t="n">
-        <v>1394.763620525088</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="V15" t="n">
-        <v>1159.611512293345</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="W15" t="n">
-        <v>905.3741555651436</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="X15" t="n">
-        <v>697.5226553596108</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="Y15" t="n">
-        <v>489.7623565946569</v>
+        <v>989.6600854869342</v>
       </c>
     </row>
     <row r="16">
@@ -5434,10 +5436,10 @@
         <v>107.8860696601711</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521474</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011316</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528323</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5537,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S17" t="n">
-        <v>1382.527700869072</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T17" t="n">
-        <v>1159.783781249839</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U17" t="n">
-        <v>905.9468981820935</v>
+        <v>1032.389842527199</v>
       </c>
       <c r="V17" t="n">
-        <v>574.8840108385228</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="W17" t="n">
-        <v>222.1153555684087</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="X17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>771.9123356732376</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="C18" t="n">
-        <v>597.4593063921106</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="D18" t="n">
-        <v>448.5248967308594</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="E18" t="n">
-        <v>289.2874417254039</v>
+        <v>377.7314566233468</v>
       </c>
       <c r="F18" t="n">
-        <v>142.7528837522889</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G18" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K18" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>758.3581127497703</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N18" t="n">
-        <v>1160.042269026704</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O18" t="n">
         <v>1380.722538783602</v>
@@ -5619,25 +5621,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U18" t="n">
-        <v>1622.966287987609</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V18" t="n">
-        <v>1609.976828391994</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W18" t="n">
-        <v>1355.739471663792</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X18" t="n">
-        <v>1147.887971458259</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="Y18" t="n">
-        <v>940.1276726933056</v>
+        <v>536.9689116288023</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.58058526620118</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5695,28 +5697,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R19" t="n">
-        <v>296.5701361642185</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="S19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X19" t="n">
-        <v>68.58058526620118</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.58058526620118</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1145.475793905159</v>
+        <v>880.0583007416833</v>
       </c>
       <c r="C20" t="n">
-        <v>776.5132769647469</v>
+        <v>511.0957838012716</v>
       </c>
       <c r="D20" t="n">
-        <v>418.2475783579964</v>
+        <v>511.0957838012716</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45932575975219</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K20" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5777,25 +5779,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1532.07563396928</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1532.07563396928</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U20" t="n">
-        <v>1532.07563396928</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V20" t="n">
-        <v>1532.07563396928</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W20" t="n">
-        <v>1532.07563396928</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X20" t="n">
-        <v>1532.07563396928</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y20" t="n">
-        <v>1532.07563396928</v>
+        <v>880.0583007416833</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>515.0842197075859</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C21" t="n">
-        <v>340.6311904264589</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D21" t="n">
-        <v>191.6967807652077</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975219</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K21" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9399761455072</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="M21" t="n">
-        <v>758.3581127497702</v>
+        <v>607.6347467811067</v>
       </c>
       <c r="N21" t="n">
-        <v>1160.042269026703</v>
+        <v>1009.31890305804</v>
       </c>
       <c r="O21" t="n">
-        <v>1483.055776201262</v>
+        <v>1332.332410232598</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1574.576159436606</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T21" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U21" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V21" t="n">
-        <v>938.0113757202575</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="W21" t="n">
-        <v>938.0113757202575</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="X21" t="n">
-        <v>891.0598554926078</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="Y21" t="n">
-        <v>683.2995567276539</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="C22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="D22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="E22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="F22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K22" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L22" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>1391.209962814678</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W22" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1294.179012144412</v>
+        <v>133.2570507049327</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>175.5296551370327</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="C23" t="n">
-        <v>175.5296551370327</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="D23" t="n">
-        <v>175.5296551370327</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E23" t="n">
-        <v>175.5296551370327</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F23" t="n">
-        <v>175.5296551370327</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K23" t="n">
         <v>247.3580469011318</v>
@@ -5996,7 +5998,7 @@
         <v>519.4894913528325</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6020,19 +6022,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.966287987609</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V23" t="n">
-        <v>1291.903400644038</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W23" t="n">
-        <v>939.1347453739243</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="X23" t="n">
-        <v>565.6689871128444</v>
+        <v>642.8949913886693</v>
       </c>
       <c r="Y23" t="n">
-        <v>175.5296551370327</v>
+        <v>252.7556594128575</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>668.6724982326921</v>
+        <v>247.8110527645798</v>
       </c>
       <c r="C24" t="n">
-        <v>668.6724982326921</v>
+        <v>247.8110527645798</v>
       </c>
       <c r="D24" t="n">
-        <v>519.7380885714408</v>
+        <v>247.8110527645798</v>
       </c>
       <c r="E24" t="n">
-        <v>360.5006335659854</v>
+        <v>247.8110527645798</v>
       </c>
       <c r="F24" t="n">
-        <v>360.5006335659854</v>
+        <v>247.8110527645798</v>
       </c>
       <c r="G24" t="n">
         <v>222.0882603251556</v>
@@ -6063,28 +6065,28 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K24" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L24" t="n">
-        <v>534.6972605625989</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M24" t="n">
-        <v>546.7891136313477</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N24" t="n">
-        <v>948.4732699082811</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O24" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P24" t="n">
-        <v>1513.730526286847</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
@@ -6099,19 +6101,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U24" t="n">
-        <v>944.9608164894784</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V24" t="n">
-        <v>709.8087082577356</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W24" t="n">
-        <v>668.6724982326921</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X24" t="n">
-        <v>668.6724982326921</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="Y24" t="n">
-        <v>668.6724982326921</v>
+        <v>247.8110527645798</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C25" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D25" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E25" t="n">
-        <v>1294.179012144412</v>
+        <v>1610.489837972837</v>
       </c>
       <c r="F25" t="n">
-        <v>1294.179012144412</v>
+        <v>1463.599890474927</v>
       </c>
       <c r="G25" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H25" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I25" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J25" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K25" t="n">
         <v>1302.533129726572</v>
@@ -6184,13 +6186,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W25" t="n">
-        <v>1333.549117950649</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X25" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y25" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>401.4218427001639</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="C26" t="n">
-        <v>32.45932575975218</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D26" t="n">
         <v>32.45932575975218</v>
@@ -6248,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.966287987609</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="S26" t="n">
-        <v>1517.79558820717</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="T26" t="n">
-        <v>1517.79558820717</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="U26" t="n">
-        <v>1517.79558820717</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="V26" t="n">
-        <v>1517.79558820717</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="W26" t="n">
-        <v>1165.026932937056</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="X26" t="n">
-        <v>791.5611746759756</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.4218427001639</v>
+        <v>1146.287381371036</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>207.4617876008815</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C27" t="n">
-        <v>207.4617876008815</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D27" t="n">
-        <v>207.4617876008815</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E27" t="n">
-        <v>207.4617876008815</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F27" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G27" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H27" t="n">
         <v>32.45932575975218</v>
@@ -6303,52 +6305,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K27" t="n">
-        <v>147.3709770270845</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L27" t="n">
-        <v>147.3709770270845</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M27" t="n">
-        <v>546.7891136313474</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N27" t="n">
-        <v>948.4732699082806</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O27" t="n">
-        <v>1271.486777082839</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1541.568727888341</v>
+        <v>1534.78160306728</v>
       </c>
       <c r="T27" t="n">
-        <v>1340.665718993834</v>
+        <v>1333.878594172773</v>
       </c>
       <c r="U27" t="n">
-        <v>1112.463051531312</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V27" t="n">
-        <v>877.3109432995698</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W27" t="n">
-        <v>623.0735865713682</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X27" t="n">
-        <v>415.2220863658354</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y27" t="n">
-        <v>207.4617876008815</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K28" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L28" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M28" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N28" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O28" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.966287987609</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X28" t="n">
-        <v>1394.976737089592</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>607.9036081666529</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C29" t="n">
-        <v>607.9036081666529</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D29" t="n">
-        <v>607.9036081666529</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E29" t="n">
-        <v>222.1153555684087</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F29" t="n">
-        <v>222.1153555684087</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G29" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H29" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I29" t="n">
         <v>32.45932575975218</v>
@@ -6494,19 +6496,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U29" t="n">
-        <v>1369.129404919863</v>
+        <v>1511.919092685724</v>
       </c>
       <c r="V29" t="n">
-        <v>1334.138021697847</v>
+        <v>1180.856205342153</v>
       </c>
       <c r="W29" t="n">
-        <v>981.3693664277328</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="X29" t="n">
-        <v>607.9036081666529</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="Y29" t="n">
-        <v>607.9036081666529</v>
+        <v>828.0875500720392</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>489.7623565946564</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="C30" t="n">
-        <v>315.3093273135294</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="D30" t="n">
-        <v>281.1652569931186</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E30" t="n">
-        <v>281.1652569931186</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F30" t="n">
-        <v>281.1652569931186</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G30" t="n">
-        <v>142.7528837522889</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975218</v>
@@ -6543,49 +6545,49 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L30" t="n">
-        <v>505.948365158507</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M30" t="n">
-        <v>905.36650176277</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N30" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O30" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T30" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U30" t="n">
-        <v>1394.763620525087</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V30" t="n">
-        <v>1159.611512293345</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W30" t="n">
-        <v>905.3741555651432</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X30" t="n">
-        <v>697.5226553596103</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y30" t="n">
-        <v>489.7623565946564</v>
+        <v>111.7947023326189</v>
       </c>
     </row>
     <row r="31">
@@ -6646,10 +6648,10 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S31" t="n">
-        <v>1523.286351224524</v>
+        <v>1583.375590384508</v>
       </c>
       <c r="T31" t="n">
-        <v>1294.179012144411</v>
+        <v>1583.375590384508</v>
       </c>
       <c r="U31" t="n">
         <v>1294.179012144411</v>
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1122.370805150056</v>
+        <v>571.3022195327464</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.370805150056</v>
+        <v>571.3022195327464</v>
       </c>
       <c r="D32" t="n">
-        <v>764.1051065433051</v>
+        <v>571.3022195327464</v>
       </c>
       <c r="E32" t="n">
-        <v>378.3168539450608</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F32" t="n">
-        <v>378.3168539450608</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G32" t="n">
-        <v>378.3168539450608</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H32" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I32" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K32" t="n">
         <v>247.3580469011318</v>
@@ -6707,7 +6709,7 @@
         <v>519.4894913528325</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6731,19 +6733,19 @@
         <v>1508.970645214177</v>
       </c>
       <c r="U32" t="n">
-        <v>1508.970645214177</v>
+        <v>1255.133762146431</v>
       </c>
       <c r="V32" t="n">
-        <v>1508.970645214177</v>
+        <v>924.0708748028607</v>
       </c>
       <c r="W32" t="n">
-        <v>1508.970645214177</v>
+        <v>571.3022195327464</v>
       </c>
       <c r="X32" t="n">
-        <v>1508.970645214177</v>
+        <v>571.3022195327464</v>
       </c>
       <c r="Y32" t="n">
-        <v>1508.970645214177</v>
+        <v>571.3022195327464</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>415.2220863658354</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C33" t="n">
-        <v>415.2220863658354</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D33" t="n">
-        <v>415.2220863658354</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E33" t="n">
-        <v>396.7416335465637</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F33" t="n">
-        <v>250.2070755734487</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I33" t="n">
         <v>32.45932575975218</v>
@@ -6780,49 +6782,49 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K33" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M33" t="n">
-        <v>758.3581127497702</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N33" t="n">
-        <v>1160.042269026703</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O33" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1563.582420117758</v>
       </c>
       <c r="S33" t="n">
-        <v>1541.568727888341</v>
+        <v>1396.080185075924</v>
       </c>
       <c r="T33" t="n">
-        <v>1340.665718993834</v>
+        <v>1195.177176181417</v>
       </c>
       <c r="U33" t="n">
-        <v>1112.463051531312</v>
+        <v>966.9745087188951</v>
       </c>
       <c r="V33" t="n">
-        <v>877.3109432995698</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="W33" t="n">
-        <v>623.0735865713682</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="X33" t="n">
-        <v>415.2220863658354</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="Y33" t="n">
-        <v>415.2220863658354</v>
+        <v>524.0621017221986</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y34" t="n">
-        <v>1475.827476974651</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1177.907757870606</v>
+        <v>1069.159481024807</v>
       </c>
       <c r="C35" t="n">
-        <v>968.7637269953004</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D35" t="n">
-        <v>968.7637269953004</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E35" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F35" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G35" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M35" t="n">
         <v>838.8947028941457</v>
@@ -6959,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1508.970645214177</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U35" t="n">
-        <v>1508.970645214177</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V35" t="n">
-        <v>1177.907757870606</v>
+        <v>1069.159481024807</v>
       </c>
       <c r="W35" t="n">
-        <v>1177.907757870606</v>
+        <v>1069.159481024807</v>
       </c>
       <c r="X35" t="n">
-        <v>1177.907757870606</v>
+        <v>1069.159481024807</v>
       </c>
       <c r="Y35" t="n">
-        <v>1177.907757870606</v>
+        <v>1069.159481024807</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>482.9631609963225</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="C36" t="n">
-        <v>482.9631609963225</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="D36" t="n">
-        <v>482.9631609963225</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E36" t="n">
-        <v>482.9631609963225</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F36" t="n">
-        <v>360.5006335659854</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G36" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H36" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J36" t="n">
         <v>61.20822116384403</v>
@@ -7020,19 +7022,19 @@
         <v>61.20822116384403</v>
       </c>
       <c r="L36" t="n">
-        <v>147.3709770270845</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M36" t="n">
-        <v>546.7891136313474</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N36" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O36" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7047,19 +7049,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U36" t="n">
-        <v>944.9608164894781</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V36" t="n">
-        <v>944.9608164894781</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W36" t="n">
-        <v>690.7234597612764</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X36" t="n">
-        <v>690.7234597612764</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="Y36" t="n">
-        <v>482.9631609963225</v>
+        <v>111.7947023326189</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
@@ -7132,13 +7134,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>260.4488766577695</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>32.45932575975218</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1291.903400644038</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C38" t="n">
-        <v>1291.903400644038</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D38" t="n">
-        <v>933.6377020372879</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E38" t="n">
-        <v>547.8494494390436</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F38" t="n">
-        <v>138.0094777250009</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G38" t="n">
-        <v>138.0094777250009</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H38" t="n">
-        <v>138.0094777250009</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975218</v>
@@ -7178,7 +7180,7 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M38" t="n">
         <v>838.8947028941454</v>
@@ -7199,25 +7201,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.966287987609</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.966287987609</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="V38" t="n">
-        <v>1291.903400644038</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="W38" t="n">
-        <v>1291.903400644038</v>
+        <v>796.0644159966438</v>
       </c>
       <c r="X38" t="n">
-        <v>1291.903400644038</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="Y38" t="n">
-        <v>1291.903400644038</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>757.6011872426429</v>
+        <v>545.4756992675339</v>
       </c>
       <c r="C39" t="n">
-        <v>583.1481579615159</v>
+        <v>371.0226699864069</v>
       </c>
       <c r="D39" t="n">
-        <v>583.1481579615159</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="E39" t="n">
-        <v>507.0351915391004</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="F39" t="n">
-        <v>360.5006335659854</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G39" t="n">
         <v>222.0882603251556</v>
@@ -7254,49 +7256,49 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K39" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L39" t="n">
-        <v>208.2166101768439</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M39" t="n">
-        <v>607.6347467811067</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N39" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O39" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1584.443200880797</v>
       </c>
       <c r="S39" t="n">
-        <v>1622.966287987609</v>
+        <v>1584.443200880797</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.966287987609</v>
+        <v>1383.54019198629</v>
       </c>
       <c r="U39" t="n">
-        <v>1622.966287987609</v>
+        <v>1383.54019198629</v>
       </c>
       <c r="V39" t="n">
-        <v>1387.814179755866</v>
+        <v>1383.54019198629</v>
       </c>
       <c r="W39" t="n">
-        <v>1133.576823027665</v>
+        <v>1129.302835258089</v>
       </c>
       <c r="X39" t="n">
-        <v>1133.576823027665</v>
+        <v>921.4513350525558</v>
       </c>
       <c r="Y39" t="n">
-        <v>925.816524262711</v>
+        <v>713.6910362876019</v>
       </c>
     </row>
     <row r="40">
@@ -7309,19 +7311,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="C40" t="n">
-        <v>1454.030105059702</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D40" t="n">
-        <v>1303.913465647367</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E40" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="F40" t="n">
-        <v>1294.179012144411</v>
+        <v>1476.076340489699</v>
       </c>
       <c r="G40" t="n">
-        <v>1294.179012144411</v>
+        <v>1306.655462159183</v>
       </c>
       <c r="H40" t="n">
         <v>1294.179012144411</v>
@@ -7385,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>631.9553272824514</v>
+        <v>309.0239426476273</v>
       </c>
       <c r="C41" t="n">
-        <v>631.9553272824514</v>
+        <v>309.0239426476273</v>
       </c>
       <c r="D41" t="n">
-        <v>631.9553272824514</v>
+        <v>309.0239426476273</v>
       </c>
       <c r="E41" t="n">
-        <v>631.9553272824514</v>
+        <v>309.0239426476273</v>
       </c>
       <c r="F41" t="n">
-        <v>631.9553272824514</v>
+        <v>309.0239426476273</v>
       </c>
       <c r="G41" t="n">
-        <v>222.1153555684087</v>
+        <v>309.0239426476273</v>
       </c>
       <c r="H41" t="n">
         <v>222.1153555684087</v>
       </c>
       <c r="I41" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011317</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7436,25 +7438,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U41" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V41" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="W41" t="n">
-        <v>1270.197632717495</v>
+        <v>1072.629032884519</v>
       </c>
       <c r="X41" t="n">
-        <v>896.7318744564152</v>
+        <v>699.1632746234391</v>
       </c>
       <c r="Y41" t="n">
-        <v>631.9553272824514</v>
+        <v>309.0239426476273</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>288.8593477001497</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C42" t="n">
-        <v>114.4063184190227</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D42" t="n">
-        <v>32.45932575975218</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E42" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G42" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H42" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I42" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L42" t="n">
-        <v>147.3709770270845</v>
+        <v>147.3709770270848</v>
       </c>
       <c r="M42" t="n">
-        <v>546.7891136313474</v>
+        <v>546.7891136313477</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O42" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
@@ -7518,22 +7520,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T42" t="n">
-        <v>1422.063279093102</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U42" t="n">
-        <v>1193.860611630581</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V42" t="n">
-        <v>958.708503398838</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W42" t="n">
-        <v>704.4711466706365</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="X42" t="n">
-        <v>496.6196464651036</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y42" t="n">
-        <v>288.8593477001497</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G43" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H43" t="n">
-        <v>1294.179012144411</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I43" t="n">
-        <v>1294.179012144411</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y43" t="n">
-        <v>1475.827476974651</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1035.258356178821</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="C44" t="n">
-        <v>828.0875500720392</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D44" t="n">
-        <v>828.0875500720392</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E44" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F44" t="n">
         <v>32.45932575975218</v>
@@ -7646,16 +7648,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7670,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="S44" t="n">
-        <v>1425.397688154633</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="T44" t="n">
-        <v>1425.397688154633</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="U44" t="n">
-        <v>1425.397688154633</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="V44" t="n">
-        <v>1425.397688154633</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="W44" t="n">
-        <v>1425.397688154633</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="X44" t="n">
-        <v>1425.397688154633</v>
+        <v>1535.61512588097</v>
       </c>
       <c r="Y44" t="n">
-        <v>1035.258356178821</v>
+        <v>1145.475793905159</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>989.6600854869342</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C45" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D45" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E45" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F45" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G45" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975218</v>
@@ -7728,22 +7730,22 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K45" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9399761455072</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="M45" t="n">
-        <v>758.3581127497702</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N45" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O45" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7752,25 +7754,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1622.966287987609</v>
+        <v>1534.78160306728</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.966287987609</v>
+        <v>1333.878594172773</v>
       </c>
       <c r="U45" t="n">
-        <v>1622.966287987609</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V45" t="n">
-        <v>1622.966287987609</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W45" t="n">
-        <v>1573.487221477489</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X45" t="n">
-        <v>1365.635721271956</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.875422507002</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>201.3955086876591</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="C46" t="n">
         <v>32.45932575975218</v>
@@ -7843,13 +7845,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W46" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X46" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y46" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
   </sheetData>
@@ -8061,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8310,10 +8312,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8543,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.2508595994748</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8781,13 +8783,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
-        <v>357.6534580335538</v>
+        <v>112.9628022719299</v>
       </c>
       <c r="P12" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275541</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
         <v>112.9628022719299</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720734</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026374</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>391.3774455544766</v>
       </c>
       <c r="N18" t="n">
         <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
-        <v>290.4954127942444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733474</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9495,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>215.0958621574524</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275543</v>
+        <v>148.6170522310418</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>186.1735738748421</v>
       </c>
       <c r="M24" t="n">
-        <v>74.46639351210686</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>203.0050015077711</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L27" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9969,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10193,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>391.3774455544766</v>
       </c>
       <c r="N30" t="n">
-        <v>92.88803957954771</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O33" t="n">
-        <v>290.4954127942447</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,13 +10670,13 @@
         <v>86.93262649026376</v>
       </c>
       <c r="L36" t="n">
-        <v>157.1342855878806</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304797</v>
+        <v>351.7205150479951</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10904,25 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L39" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>393.6271860256722</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>86.93262649026376</v>
       </c>
       <c r="L42" t="n">
-        <v>186.1735738748421</v>
+        <v>157.134285587881</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11376,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733474</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>375.205539958231</v>
       </c>
       <c r="N45" t="n">
-        <v>351.7205150479949</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>306.9349787968916</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>8.97193213363164</v>
+        <v>135.268392664377</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
         <v>187.7594695105699</v>
@@ -23303,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23334,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>53.66460181740077</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23388,13 +23390,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23403,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>99.72383619017168</v>
       </c>
     </row>
     <row r="13">
@@ -23431,13 +23433,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>159.8772180037952</v>
+        <v>56.55224943852487</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>123.3497577082892</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23495,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>338.7675548521784</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>140.0114066867786</v>
       </c>
       <c r="F14" t="n">
-        <v>1.134473744809043</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G14" t="n">
-        <v>8.971932133631526</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4671206089833</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>44.25227630748151</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23668,7 +23670,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>56.55224943852481</v>
+        <v>56.55224943852487</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
         <v>165.4090611368575</v>
@@ -23750,7 +23752,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.41439893299153</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23795,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>56.79311626624457</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>128.0106975665961</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,25 +23861,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>219.941022149766</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>131.4867741872433</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23911,7 +23913,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J19" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082893</v>
       </c>
       <c r="T19" t="n">
         <v>226.8162656893113</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>313.8218486080599</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G20" t="n">
         <v>414.7135041305339</v>
@@ -24017,7 +24019,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>105.6111663565007</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
         <v>220.5164804230398</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24057,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24105,16 +24107,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>159.2909801781042</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>109.963930448481</v>
       </c>
     </row>
     <row r="22">
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>45.6313003272025</v>
       </c>
       <c r="G22" t="n">
         <v>167.7266695472104</v>
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>123.3497577082895</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
         <v>226.8162656893113</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>352.3999408574762</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>273.0738780470262</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,10 +24262,10 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24288,16 +24290,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>111.5626849933915</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24345,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>210.9701352361265</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24370,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>134.082277131945</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>159.8772180037952</v>
@@ -24424,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>186.7332506408625</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24488,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>27.18150745134386</v>
       </c>
       <c r="S26" t="n">
-        <v>91.47392105201148</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
         <v>220.5164804230398</v>
@@ -24503,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24531,13 +24533,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>81.00739758327727</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
         <v>78.54202280713804</v>
@@ -24567,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>78.52437462028948</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24652,10 +24654,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.7949056563663</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,16 +24736,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>141.3617908882022</v>
       </c>
       <c r="V29" t="n">
-        <v>293.1107890803387</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,10 +24761,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>113.6424359474321</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>71.11679827583617</v>
       </c>
     </row>
     <row r="31">
@@ -24886,13 +24888,13 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>120.7272614763991</v>
+        <v>180.2156082447831</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>254.2174772338998</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G32" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
-        <v>178.800832322835</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,13 +24973,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>139.349432164322</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>21.7935553071226</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25056,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25123,10 +25125,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8162656893113</v>
+        <v>120.7272614763988</v>
       </c>
       <c r="U34" t="n">
         <v>286.3046124576955</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>72.91723044926633</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>158.2203012044546</v>
+        <v>75.5531497515484</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2985142370684</v>
@@ -25242,13 +25244,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>23.8313102373501</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25290,16 +25292,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>71.11679827583598</v>
       </c>
     </row>
     <row r="37">
@@ -25372,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>186.7332506408623</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>118.7949056563661</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25394,13 +25396,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
@@ -25409,7 +25411,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>83.26481906497372</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>198.0160239411123</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25473,16 +25475,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>82.29324369720958</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25515,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>42.44572826253141</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>136.7968536786436</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>159.8772180037952</v>
+        <v>147.525532489171</v>
       </c>
       <c r="I40" t="n">
         <v>147.5019580580808</v>
@@ -25640,10 +25642,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
-        <v>333.4403157157206</v>
+        <v>247.4008145072941</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>220.5164804230398</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>124.1091569538295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>66.31754283196094</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25758,16 +25760,16 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>202.7107073159004</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25801,13 +25803,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>56.55224943852487</v>
       </c>
       <c r="I43" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.91723044926633</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,16 +25867,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>160.1737937252936</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.7135041305339</v>
@@ -25910,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>26.37803586012498</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
         <v>220.5164804230398</v>
@@ -25944,25 +25946,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,19 +25994,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>78.52437462028948</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>202.7107073159006</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.57939819579923</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>128.2704163504529</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>529792.1913913386</v>
+        <v>529792.1913913388</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>529792.1913913389</v>
+        <v>529792.1913913386</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>529792.1913913386</v>
+        <v>529792.1913913391</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>529792.1913913387</v>
+        <v>529792.1913913386</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>529792.1913913389</v>
+        <v>529792.1913913391</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>529792.1913913389</v>
+        <v>529792.1913913391</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>529792.1913913389</v>
+        <v>529792.1913913385</v>
       </c>
     </row>
   </sheetData>
@@ -26314,10 +26316,10 @@
         <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.150411784</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
         <v>277717.5661839885</v>
@@ -26326,7 +26328,7 @@
         <v>277717.5661839885</v>
       </c>
       <c r="G2" t="n">
-        <v>277717.5661839886</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="H2" t="n">
         <v>277717.5661839885</v>
@@ -26341,16 +26343,16 @@
         <v>277717.5661839885</v>
       </c>
       <c r="L2" t="n">
+        <v>277717.5661839884</v>
+      </c>
+      <c r="M2" t="n">
         <v>277717.5661839885</v>
-      </c>
-      <c r="M2" t="n">
-        <v>277717.5661839886</v>
       </c>
       <c r="N2" t="n">
         <v>277717.5661839884</v>
       </c>
       <c r="O2" t="n">
-        <v>277717.5661839884</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="P2" t="n">
         <v>277717.5661839885</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910621</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,40 +26423,40 @@
         <v>337698.1101336324</v>
       </c>
       <c r="D4" t="n">
-        <v>337698.1101336325</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="E4" t="n">
-        <v>60114.57655225278</v>
+        <v>60114.57655225279</v>
       </c>
       <c r="F4" t="n">
-        <v>60114.57655225278</v>
+        <v>60114.57655225279</v>
       </c>
       <c r="G4" t="n">
-        <v>60114.57655225278</v>
+        <v>60114.57655225279</v>
       </c>
       <c r="H4" t="n">
         <v>60114.57655225279</v>
       </c>
       <c r="I4" t="n">
-        <v>60114.57655225279</v>
+        <v>60114.57655225278</v>
       </c>
       <c r="J4" t="n">
-        <v>60114.57655225279</v>
+        <v>60114.57655225278</v>
       </c>
       <c r="K4" t="n">
         <v>60114.57655225279</v>
       </c>
       <c r="L4" t="n">
-        <v>60114.57655225278</v>
+        <v>60114.57655225279</v>
       </c>
       <c r="M4" t="n">
-        <v>60114.57655225278</v>
+        <v>60114.57655225279</v>
       </c>
       <c r="N4" t="n">
         <v>60114.57655225278</v>
       </c>
       <c r="O4" t="n">
-        <v>60114.57655225278</v>
+        <v>60114.57655225279</v>
       </c>
       <c r="P4" t="n">
         <v>60114.57655225278</v>
@@ -26479,16 +26481,16 @@
         <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375756</v>
@@ -26500,13 +26502,13 @@
         <v>27864.35291375756</v>
       </c>
       <c r="M5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="N5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="O5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="P5" t="n">
         <v>27864.35291375756</v>
@@ -26522,13 +26524,13 @@
         <v>66928.33998284221</v>
       </c>
       <c r="C6" t="n">
+        <v>147697.7715143901</v>
+      </c>
+      <c r="D6" t="n">
         <v>147697.7715143898</v>
       </c>
-      <c r="D6" t="n">
-        <v>147697.77151439</v>
-      </c>
       <c r="E6" t="n">
-        <v>22798.46659273144</v>
+        <v>22798.46659273146</v>
       </c>
       <c r="F6" t="n">
         <v>189738.6367179781</v>
@@ -26537,13 +26539,13 @@
         <v>189738.6367179782</v>
       </c>
       <c r="H6" t="n">
-        <v>189738.6367179782</v>
+        <v>189738.6367179781</v>
       </c>
       <c r="I6" t="n">
-        <v>189738.6367179782</v>
+        <v>189738.6367179783</v>
       </c>
       <c r="J6" t="n">
-        <v>126678.694118872</v>
+        <v>126678.6941188719</v>
       </c>
       <c r="K6" t="n">
         <v>189738.6367179782</v>
@@ -26552,16 +26554,16 @@
         <v>189738.6367179781</v>
       </c>
       <c r="M6" t="n">
-        <v>148687.9388555303</v>
+        <v>148687.9388555302</v>
       </c>
       <c r="N6" t="n">
         <v>189738.6367179781</v>
       </c>
       <c r="O6" t="n">
+        <v>189738.6367179782</v>
+      </c>
+      <c r="P6" t="n">
         <v>189738.6367179781</v>
-      </c>
-      <c r="P6" t="n">
-        <v>189738.6367179782</v>
       </c>
     </row>
   </sheetData>
@@ -26747,10 +26749,10 @@
         <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="G3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="H3" t="n">
         <v>146.571804419537</v>
@@ -26799,7 +26801,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G4" t="n">
         <v>405.7415719969023</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>299.2373176703213</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>20.36928718381029</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27424,7 +27426,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27467,13 +27469,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>96.31796450195137</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.52239379468884</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27585,7 +27587,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27594,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>204.5765286314975</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,22 +27624,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27710,7 +27712,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27743,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>45.23847370169204</v>
+        <v>81.28359509591688</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27916,10 +27918,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>126.077797432388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27953,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>88.9896173806811</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="11">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O12" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31932,7 +31934,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31941,16 +31943,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I14" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629221</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044663</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M15" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100591</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.24363958326611</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M16" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118892</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I17" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629221</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L17" t="n">
-        <v>92.98544734044663</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M17" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N17" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H18" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K18" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M18" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100591</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.24363958326611</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R18" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H19" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J19" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L19" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M19" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N19" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P19" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R19" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S19" t="n">
-        <v>4.606199165118892</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,7 +35023,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35030,10 +35032,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,7 +35263,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9091475161415</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35428,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696147</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223149</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>290.0674086301152</v>
+        <v>45.37675286849139</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35568,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35665,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696147</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
-        <v>177.5326105223149</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
         <v>45.37675286849139</v>
       </c>
       <c r="P15" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35805,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714792</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167934</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
@@ -35902,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366293</v>
+        <v>329.1250450411059</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
-        <v>222.9093633908059</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M19" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P19" t="n">
-        <v>29.24562952714792</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L21" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>403.4526632366292</v>
@@ -36215,10 +36217,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>141.3237492791392</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>48.87891772828636</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>300.7391464461244</v>
+        <v>116.0723750175074</v>
       </c>
       <c r="M24" t="n">
-        <v>12.2139929987362</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N24" t="n">
         <v>405.7415719969023</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K27" t="n">
-        <v>116.0723750175074</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
         <v>403.4526632366292</v>
@@ -36689,10 +36691,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>244.6906557616239</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>403.4526632366292</v>
+        <v>329.1250450411059</v>
       </c>
       <c r="N30" t="n">
-        <v>43.54219004597032</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -36929,7 +36931,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37157,16 +37159,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O33" t="n">
-        <v>222.9093633908061</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>87.03308673054588</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>302.3746655144177</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37403,7 +37405,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,7 +37560,7 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P38" t="n">
-        <v>175.2982096635897</v>
+        <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
         <v>53.63987744680304</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>344.2813364920948</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>38.06115762167967</v>
       </c>
       <c r="K41" t="n">
-        <v>179.0082576726431</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L41" t="n">
         <v>274.8802469209098</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>116.0723750175074</v>
+        <v>87.03308673054623</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366292</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167952</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726432</v>
@@ -38096,16 +38098,16 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L45" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>403.4526632366292</v>
+        <v>312.9531394448603</v>
       </c>
       <c r="N45" t="n">
-        <v>302.3746655144175</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
@@ -38114,7 +38116,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_7_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_7_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1185211.372281076</v>
+        <v>1235104.148932074</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.768411118</v>
+        <v>713587.7684111181</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.2720521</v>
+        <v>11813519.27205211</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F2" t="n">
-        <v>175.0426595591497</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.32052515928247</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>83.99255156561412</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>73.63038023878079</v>
+        <v>37.12283097261258</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.510622599975445</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>155.1417396678815</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>96.13285199009043</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1183,7 +1183,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1235,7 +1235,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>117.5784330035868</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1308,43 +1308,43 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>95.74750869258952</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>177.976420337514</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>6.71925357285062</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>102.3085701543151</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>145.6674229028287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>56.08084490968593</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>312.9379844122245</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1694,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>27.24734011947987</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>98.46417165693833</v>
       </c>
       <c r="U15" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>39.19479062707047</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>39.19479062707047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>72.13628181900725</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>148.5900260520735</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37.50027819509781</v>
+        <v>62.67892802202064</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>78.54202280713804</v>
@@ -1979,19 +1979,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>98.68313739545468</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>38.97640474817497</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>104.4946504455964</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>226.9040710984969</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>113.4883178883725</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>177.4212555964926</v>
       </c>
     </row>
     <row r="22">
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>39.19479062707047</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>73.36175976093796</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>58.20823965347075</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>338.0913843196636</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>113.4883178883721</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>147.3949262322361</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>14.66929392497716</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>158.2525819861381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>380.3849069482931</v>
       </c>
       <c r="F26" t="n">
         <v>405.7415719969023</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>43.50864318698262</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>39.43167000088686</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>181.7638782208678</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>10.75062392805735</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>405.7415719969023</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>381.1883785395118</v>
+        <v>108.750249677601</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0.5439382344022646</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>140.514979870707</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.213123944113216</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>264.0251236100227</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>30.15743961067301</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G32" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3116,10 +3116,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>61.95809925116131</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>150.82465425502</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>39.19479062707047</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>38.97640474817497</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>30.15743961067318</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G35" t="n">
-        <v>399.8885402891419</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>147.3949262322357</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>149.4030830651738</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>33.64439241526551</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>38.97640474817497</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>66.97401714472393</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>140.6557620876995</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>85.08600168954919</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>88.20109239779927</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>11.81861933956894</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>20.2011370580395</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>30.96091120189178</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>53.96864153531296</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3827,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>135.3404533930299</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
         <v>198.8939788055617</v>
@@ -3878,16 +3878,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>56.7522742609253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
-        <v>0.213123944113216</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>160.0903419479085</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969022</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.1574396106729</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>17.95817021687985</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4067,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>25.37527508885704</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
         <v>109.1906224126114</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>165.8272126914158</v>
@@ -4121,10 +4121,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>29.63438288880439</v>
       </c>
     </row>
     <row r="46">
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.6221850809707</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>10.27077547947482</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D2" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E2" t="n">
-        <v>223.6192102101089</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>762.5638632763679</v>
+        <v>447.2758270930352</v>
       </c>
       <c r="C3" t="n">
-        <v>588.1108339952409</v>
+        <v>447.2758270930352</v>
       </c>
       <c r="D3" t="n">
-        <v>439.1764243339896</v>
+        <v>447.2758270930352</v>
       </c>
       <c r="E3" t="n">
-        <v>279.9389693285341</v>
+        <v>447.2758270930352</v>
       </c>
       <c r="F3" t="n">
-        <v>133.4044113554191</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,19 +4415,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4451,10 +4451,10 @@
         <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y3" t="n">
-        <v>862.8876260635219</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="4">
@@ -4509,31 +4509,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333.7844730889342</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>333.7844730889342</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>333.7844730889342</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>333.7844730889342</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4597,22 +4597,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>333.7844730889342</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.5807722530562</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="C6" t="n">
-        <v>109.5807722530562</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="D6" t="n">
-        <v>109.5807722530562</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="E6" t="n">
-        <v>109.5807722530562</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F6" t="n">
-        <v>109.5807722530562</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>109.5807722530562</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>962.5312740965196</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>760.3446794552856</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>760.3446794552856</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>525.1925712235429</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>525.1925712235429</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>317.3410710180102</v>
+        <v>807.3483275632811</v>
       </c>
       <c r="Y6" t="n">
-        <v>109.5807722530562</v>
+        <v>599.5880287983272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>348.0024326625565</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C8" t="n">
-        <v>348.0024326625565</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D8" t="n">
-        <v>348.0024326625565</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E8" t="n">
-        <v>348.0024326625565</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F8" t="n">
-        <v>341.056931913353</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>348.0024326625565</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C9" t="n">
-        <v>816.3871559026832</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D9" t="n">
-        <v>667.4527462414319</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E9" t="n">
-        <v>508.2152912359765</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>361.6807332628614</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -4992,22 +4992,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>800.5649960805454</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C11" t="n">
-        <v>800.5649960805454</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D11" t="n">
-        <v>442.2992974737949</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E11" t="n">
         <v>442.2992974737949</v>
@@ -5041,16 +5041,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5071,22 +5071,22 @@
         <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1311.402045381201</v>
+        <v>1214.687390136161</v>
       </c>
       <c r="U11" t="n">
-        <v>1311.402045381201</v>
+        <v>1214.687390136161</v>
       </c>
       <c r="V11" t="n">
-        <v>980.3391580376302</v>
+        <v>1214.687390136161</v>
       </c>
       <c r="W11" t="n">
-        <v>800.5649960805454</v>
+        <v>1214.687390136161</v>
       </c>
       <c r="X11" t="n">
-        <v>800.5649960805454</v>
+        <v>1214.687390136161</v>
       </c>
       <c r="Y11" t="n">
-        <v>800.5649960805454</v>
+        <v>1214.687390136161</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>653.4965929484157</v>
+        <v>39.24645058081342</v>
       </c>
       <c r="C12" t="n">
-        <v>479.0435636672887</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D12" t="n">
-        <v>330.1091540060374</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E12" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F12" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G12" t="n">
         <v>32.45932575975218</v>
@@ -5120,16 +5120,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K12" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L12" t="n">
-        <v>147.3709770270844</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M12" t="n">
-        <v>546.7891136313474</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N12" t="n">
         <v>948.4732699082806</v>
@@ -5147,25 +5147,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1438.226737833477</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T12" t="n">
-        <v>1237.32372893897</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U12" t="n">
-        <v>1237.32372893897</v>
+        <v>1112.463051531312</v>
       </c>
       <c r="V12" t="n">
-        <v>1237.32372893897</v>
+        <v>877.3109432995698</v>
       </c>
       <c r="W12" t="n">
-        <v>1237.32372893897</v>
+        <v>623.0735865713682</v>
       </c>
       <c r="X12" t="n">
-        <v>1029.472228733438</v>
+        <v>415.2220863658354</v>
       </c>
       <c r="Y12" t="n">
-        <v>821.7119299684837</v>
+        <v>207.4617876008815</v>
       </c>
     </row>
     <row r="13">
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="D13" t="n">
         <v>32.45932575975218</v>
@@ -5238,13 +5238,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X13" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y13" t="n">
-        <v>214.1077905899919</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1057.565162313455</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="C14" t="n">
-        <v>688.6026453730433</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="D14" t="n">
-        <v>688.6026453730433</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="E14" t="n">
-        <v>688.6026453730433</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="F14" t="n">
-        <v>631.9553272824514</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="G14" t="n">
-        <v>222.1153555684087</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="H14" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
         <v>32.45932575975218</v>
@@ -5305,25 +5305,25 @@
         <v>1508.970645214177</v>
       </c>
       <c r="S14" t="n">
-        <v>1311.402045381201</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T14" t="n">
-        <v>1311.402045381201</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U14" t="n">
-        <v>1057.565162313455</v>
+        <v>1032.389842527199</v>
       </c>
       <c r="V14" t="n">
-        <v>1057.565162313455</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="W14" t="n">
-        <v>1057.565162313455</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="X14" t="n">
-        <v>1057.565162313455</v>
+        <v>348.5582999135143</v>
       </c>
       <c r="Y14" t="n">
-        <v>1057.565162313455</v>
+        <v>348.5582999135143</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>396.1453840755231</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="C15" t="n">
-        <v>396.1453840755231</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="D15" t="n">
-        <v>396.1453840755231</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="E15" t="n">
-        <v>368.6228182982707</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="F15" t="n">
         <v>222.0882603251556</v>
@@ -5363,13 +5363,13 @@
         <v>61.20822116384403</v>
       </c>
       <c r="L15" t="n">
-        <v>147.3709770270844</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M15" t="n">
-        <v>546.7891136313474</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082806</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O15" t="n">
         <v>1271.486777082839</v>
@@ -5384,25 +5384,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T15" t="n">
-        <v>1254.561044051268</v>
+        <v>1523.507528738176</v>
       </c>
       <c r="U15" t="n">
-        <v>1026.358376588747</v>
+        <v>1295.304861275655</v>
       </c>
       <c r="V15" t="n">
-        <v>1026.358376588747</v>
+        <v>1060.152753043912</v>
       </c>
       <c r="W15" t="n">
-        <v>772.1210198605449</v>
+        <v>805.9153963157105</v>
       </c>
       <c r="X15" t="n">
-        <v>772.1210198605449</v>
+        <v>598.0638961101777</v>
       </c>
       <c r="Y15" t="n">
-        <v>564.3607210955911</v>
+        <v>390.3035973452237</v>
       </c>
     </row>
     <row r="16">
@@ -5460,25 +5460,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>361.2466016029501</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="S16" t="n">
-        <v>361.2466016029501</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="T16" t="n">
-        <v>361.2466016029501</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U16" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V16" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W16" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X16" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y16" t="n">
         <v>32.45932575975218</v>
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>442.2992974737949</v>
+        <v>515.1642286041053</v>
       </c>
       <c r="C17" t="n">
-        <v>442.2992974737949</v>
+        <v>515.1642286041053</v>
       </c>
       <c r="D17" t="n">
-        <v>442.2992974737949</v>
+        <v>515.1642286041053</v>
       </c>
       <c r="E17" t="n">
-        <v>442.2992974737949</v>
+        <v>515.1642286041053</v>
       </c>
       <c r="F17" t="n">
-        <v>32.45932575975218</v>
+        <v>105.3242568900625</v>
       </c>
       <c r="G17" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J17" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L17" t="n">
         <v>519.4894913528326</v>
@@ -5548,19 +5548,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U17" t="n">
-        <v>1369.129404919863</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V17" t="n">
-        <v>1369.129404919863</v>
+        <v>1291.903400644039</v>
       </c>
       <c r="W17" t="n">
-        <v>1219.038469513728</v>
+        <v>1291.903400644039</v>
       </c>
       <c r="X17" t="n">
-        <v>1219.038469513728</v>
+        <v>1291.903400644039</v>
       </c>
       <c r="Y17" t="n">
-        <v>828.8991375379167</v>
+        <v>901.7640686682271</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>545.4756992675339</v>
+        <v>286.2477316137459</v>
       </c>
       <c r="C18" t="n">
-        <v>371.0226699864069</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="D18" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E18" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F18" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G18" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H18" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K18" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L18" t="n">
-        <v>505.948365158507</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>546.7891136313474</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N18" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O18" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
@@ -5627,19 +5627,19 @@
         <v>1254.561044051268</v>
       </c>
       <c r="U18" t="n">
-        <v>1026.358376588747</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V18" t="n">
-        <v>791.2062683570039</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="W18" t="n">
-        <v>791.2062683570039</v>
+        <v>765.1715790913242</v>
       </c>
       <c r="X18" t="n">
-        <v>583.354768151471</v>
+        <v>557.3200788857914</v>
       </c>
       <c r="Y18" t="n">
-        <v>583.354768151471</v>
+        <v>349.5597801208375</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5703,22 +5703,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U19" t="n">
-        <v>321.8764957967128</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V19" t="n">
-        <v>321.8764957967128</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>917.1894538880083</v>
+        <v>1186.35324867879</v>
       </c>
       <c r="C20" t="n">
-        <v>917.1894538880083</v>
+        <v>1186.35324867879</v>
       </c>
       <c r="D20" t="n">
-        <v>558.9237552812579</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E20" t="n">
-        <v>558.9237552812579</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F20" t="n">
-        <v>558.9237552812579</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G20" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K20" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O20" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P20" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q20" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U20" t="n">
-        <v>1146.385485300631</v>
+        <v>1517.41613602236</v>
       </c>
       <c r="V20" t="n">
-        <v>1146.385485300631</v>
+        <v>1186.35324867879</v>
       </c>
       <c r="W20" t="n">
-        <v>1146.385485300631</v>
+        <v>1186.35324867879</v>
       </c>
       <c r="X20" t="n">
-        <v>917.1894538880083</v>
+        <v>1186.35324867879</v>
       </c>
       <c r="Y20" t="n">
-        <v>917.1894538880083</v>
+        <v>1186.35324867879</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>206.9123550408792</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="C21" t="n">
-        <v>32.45932575975219</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="D21" t="n">
-        <v>32.45932575975219</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975219</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975219</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L21" t="n">
-        <v>256.6067387278475</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M21" t="n">
-        <v>656.0248753321105</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609044</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O21" t="n">
         <v>1380.722538783602</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q21" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T21" t="n">
-        <v>1508.3316234539</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U21" t="n">
-        <v>1280.128955991378</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V21" t="n">
-        <v>1044.976847759636</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W21" t="n">
-        <v>790.739491031434</v>
+        <v>704.4711466706365</v>
       </c>
       <c r="X21" t="n">
-        <v>582.8879908259012</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="Y21" t="n">
-        <v>375.1276920609473</v>
+        <v>317.4062569736969</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5940,22 +5940,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V22" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.7250243665027</v>
+        <v>859.361197750718</v>
       </c>
       <c r="C23" t="n">
-        <v>390.7250243665027</v>
+        <v>859.361197750718</v>
       </c>
       <c r="D23" t="n">
-        <v>32.45932575975218</v>
+        <v>501.0954991439675</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975218</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975218</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R23" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S23" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T23" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U23" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V23" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W23" t="n">
-        <v>1167.464196406436</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X23" t="n">
-        <v>1167.464196406436</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="Y23" t="n">
-        <v>777.3248644306245</v>
+        <v>859.361197750718</v>
       </c>
     </row>
     <row r="24">
@@ -6047,61 +6047,61 @@
         <v>206.9123550408792</v>
       </c>
       <c r="C24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L24" t="n">
-        <v>330.1910807414154</v>
+        <v>256.6067387278475</v>
       </c>
       <c r="M24" t="n">
-        <v>729.6092173456784</v>
+        <v>656.0248753321105</v>
       </c>
       <c r="N24" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O24" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T24" t="n">
-        <v>1508.3316234539</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U24" t="n">
-        <v>1280.128955991378</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V24" t="n">
         <v>1044.976847759636</v>
@@ -6113,7 +6113,7 @@
         <v>582.8879908259012</v>
       </c>
       <c r="Y24" t="n">
-        <v>375.1276920609472</v>
+        <v>375.1276920609473</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>201.3955086876591</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>47.27679437084024</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6171,28 +6171,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="S25" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="T25" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="U25" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="V25" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="W25" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="X25" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="Y25" t="n">
-        <v>201.3955086876591</v>
+        <v>194.1667418687506</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>852.1392691878377</v>
+        <v>1236.366447923487</v>
       </c>
       <c r="C26" t="n">
-        <v>852.1392691878377</v>
+        <v>1236.366447923487</v>
       </c>
       <c r="D26" t="n">
-        <v>852.1392691878377</v>
+        <v>1236.366447923487</v>
       </c>
       <c r="E26" t="n">
         <v>852.1392691878377</v>
@@ -6226,10 +6226,10 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L26" t="n">
         <v>519.4894913528326</v>
@@ -6250,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>1242.278601163649</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V26" t="n">
-        <v>1242.278601163649</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W26" t="n">
-        <v>1242.278601163649</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X26" t="n">
-        <v>1242.278601163649</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y26" t="n">
-        <v>852.1392691878377</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>366.1498100463347</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="C27" t="n">
-        <v>191.6967807652077</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="D27" t="n">
-        <v>191.6967807652077</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="E27" t="n">
-        <v>32.45932575975218</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975218</v>
+        <v>182.5828534501544</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H27" t="n">
         <v>32.45932575975218</v>
@@ -6332,25 +6332,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U27" t="n">
-        <v>1439.366410996834</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V27" t="n">
-        <v>1204.214302765091</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W27" t="n">
-        <v>949.9769460368893</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X27" t="n">
-        <v>742.1254458313565</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="Y27" t="n">
-        <v>534.3651470664026</v>
+        <v>329.1174114232695</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.82943156598952</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C28" t="n">
-        <v>71.82943156598952</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975218</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975218</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975218</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975218</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="I28" t="n">
         <v>32.45932575975218</v>
@@ -6423,13 +6423,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>71.82943156598952</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X28" t="n">
-        <v>71.82943156598952</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y28" t="n">
-        <v>71.82943156598952</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1237.927521786082</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C29" t="n">
-        <v>1237.927521786082</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D29" t="n">
-        <v>1237.927521786082</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E29" t="n">
-        <v>852.1392691878377</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F29" t="n">
         <v>442.2992974737949</v>
@@ -6487,28 +6487,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U29" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V29" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W29" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="X29" t="n">
-        <v>1622.966287987609</v>
+        <v>937.9362871201211</v>
       </c>
       <c r="Y29" t="n">
-        <v>1237.927521786082</v>
+        <v>828.0875500720392</v>
       </c>
     </row>
     <row r="30">
@@ -6548,10 +6548,10 @@
         <v>32.45932575975218</v>
       </c>
       <c r="L30" t="n">
-        <v>330.1910807414154</v>
+        <v>256.6067387278472</v>
       </c>
       <c r="M30" t="n">
-        <v>729.6092173456784</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N30" t="n">
         <v>1057.709031609043</v>
@@ -6566,28 +6566,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1541.019295328339</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1340.116286433832</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U30" t="n">
-        <v>1111.91361897131</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V30" t="n">
-        <v>876.7615107395675</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W30" t="n">
-        <v>622.5241540113659</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X30" t="n">
-        <v>414.6726538058331</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y30" t="n">
-        <v>206.9123550408792</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="H31" t="n">
         <v>32.45932575975218</v>
@@ -6645,28 +6645,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="S31" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="T31" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="U31" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="V31" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="W31" t="n">
-        <v>71.82943156598952</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975218</v>
+        <v>194.1667418687506</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>852.139269187838</v>
+        <v>472.761357686596</v>
       </c>
       <c r="C32" t="n">
-        <v>852.139269187838</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D32" t="n">
-        <v>852.139269187838</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E32" t="n">
-        <v>852.139269187838</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F32" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G32" t="n">
         <v>32.45932575975219</v>
@@ -6703,49 +6703,49 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K32" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O32" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P32" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q32" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S32" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T32" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U32" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V32" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W32" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X32" t="n">
-        <v>1508.970645214178</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="Y32" t="n">
-        <v>1118.831313238366</v>
+        <v>859.3611977507178</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>487.165748399574</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="C33" t="n">
-        <v>487.165748399574</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D33" t="n">
-        <v>338.2313387383227</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E33" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F33" t="n">
         <v>32.45932575975219</v>
@@ -6785,10 +6785,10 @@
         <v>32.45932575975219</v>
       </c>
       <c r="L33" t="n">
-        <v>330.1910807414154</v>
+        <v>256.6067387278474</v>
       </c>
       <c r="M33" t="n">
-        <v>729.6092173456784</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N33" t="n">
         <v>1057.709031609044</v>
@@ -6797,34 +6797,34 @@
         <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1560.382349350073</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S33" t="n">
-        <v>1560.382349350073</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T33" t="n">
-        <v>1560.382349350073</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U33" t="n">
-        <v>1560.382349350073</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V33" t="n">
-        <v>1325.23024111833</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W33" t="n">
-        <v>1070.992884390129</v>
+        <v>557.4605726466043</v>
       </c>
       <c r="X33" t="n">
-        <v>863.1413841845958</v>
+        <v>349.6090724410715</v>
       </c>
       <c r="Y33" t="n">
-        <v>655.381085419642</v>
+        <v>349.6090724410715</v>
       </c>
     </row>
     <row r="34">
@@ -6882,19 +6882,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>361.2466016029501</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="S34" t="n">
-        <v>361.2466016029501</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="T34" t="n">
-        <v>361.2466016029501</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U34" t="n">
-        <v>321.8764957967128</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V34" t="n">
-        <v>321.8764957967128</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W34" t="n">
         <v>32.45932575975219</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>846.2271159476757</v>
+        <v>472.7613576865962</v>
       </c>
       <c r="C35" t="n">
-        <v>846.2271159476757</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D35" t="n">
-        <v>846.2271159476757</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E35" t="n">
-        <v>846.2271159476757</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F35" t="n">
-        <v>436.3871442336329</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O35" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P35" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q35" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R35" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U35" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V35" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W35" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X35" t="n">
-        <v>1622.966287987609</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="Y35" t="n">
-        <v>1232.826956011797</v>
+        <v>859.361197750718</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>206.9123550408792</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975218</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975218</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K36" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L36" t="n">
-        <v>505.948365158507</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M36" t="n">
-        <v>905.36650176277</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N36" t="n">
-        <v>1299.952780813051</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O36" t="n">
-        <v>1622.966287987609</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q36" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R36" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S36" t="n">
-        <v>1474.082524116664</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T36" t="n">
-        <v>1273.179515222157</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U36" t="n">
-        <v>1044.976847759636</v>
+        <v>1271.151073976766</v>
       </c>
       <c r="V36" t="n">
-        <v>1044.976847759636</v>
+        <v>1035.998965745023</v>
       </c>
       <c r="W36" t="n">
-        <v>790.739491031434</v>
+        <v>781.7616090168215</v>
       </c>
       <c r="X36" t="n">
-        <v>582.8879908259012</v>
+        <v>573.9101088112886</v>
       </c>
       <c r="Y36" t="n">
-        <v>375.1276920609472</v>
+        <v>366.1498100463347</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975218</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975218</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975218</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
@@ -7128,19 +7128,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1555.315765619201</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="C38" t="n">
-        <v>1186.35324867879</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D38" t="n">
-        <v>828.0875500720392</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E38" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F38" t="n">
         <v>32.45932575975219</v>
@@ -7174,16 +7174,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011317</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7210,16 +7210,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V38" t="n">
-        <v>1622.966287987609</v>
+        <v>1291.903400644039</v>
       </c>
       <c r="W38" t="n">
-        <v>1555.315765619201</v>
+        <v>1291.903400644039</v>
       </c>
       <c r="X38" t="n">
-        <v>1555.315765619201</v>
+        <v>1149.826873282726</v>
       </c>
       <c r="Y38" t="n">
-        <v>1555.315765619201</v>
+        <v>759.6875413069145</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>879.3665274943975</v>
+        <v>750.7107902037305</v>
       </c>
       <c r="C39" t="n">
-        <v>704.9134982132705</v>
+        <v>576.2577609226036</v>
       </c>
       <c r="D39" t="n">
-        <v>555.9790885520192</v>
+        <v>427.3233512613523</v>
       </c>
       <c r="E39" t="n">
-        <v>396.7416335465637</v>
+        <v>268.0858962558968</v>
       </c>
       <c r="F39" t="n">
-        <v>250.2070755734487</v>
+        <v>121.5513382827818</v>
       </c>
       <c r="G39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K39" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L39" t="n">
-        <v>505.9483651585071</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M39" t="n">
-        <v>905.3665017627701</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N39" t="n">
-        <v>1299.952780813051</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O39" t="n">
-        <v>1622.966287987609</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
@@ -7292,13 +7292,13 @@
         <v>1173.163483952</v>
       </c>
       <c r="W39" t="n">
-        <v>1173.163483952</v>
+        <v>918.9261272237986</v>
       </c>
       <c r="X39" t="n">
-        <v>965.3119837464674</v>
+        <v>918.9261272237986</v>
       </c>
       <c r="Y39" t="n">
-        <v>965.3119837464674</v>
+        <v>918.9261272237986</v>
       </c>
     </row>
     <row r="40">
@@ -7311,22 +7311,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="C40" t="n">
-        <v>361.2466016029501</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="D40" t="n">
-        <v>361.2466016029501</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="E40" t="n">
-        <v>361.2466016029501</v>
+        <v>44.39732509265011</v>
       </c>
       <c r="F40" t="n">
-        <v>214.3566541050398</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G40" t="n">
-        <v>214.3566541050398</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H40" t="n">
-        <v>52.86451470726684</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I40" t="n">
         <v>32.45932575975219</v>
@@ -7335,7 +7335,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L40" t="n">
         <v>107.0302722280248</v>
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>828.0875500720392</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="C41" t="n">
-        <v>828.0875500720392</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D41" t="n">
-        <v>828.0875500720392</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E41" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F41" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G41" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H41" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I41" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521428</v>
       </c>
       <c r="K41" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011311</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528318</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941449</v>
       </c>
       <c r="N41" t="n">
-        <v>1148.836227140252</v>
+        <v>1148.836227140251</v>
       </c>
       <c r="O41" t="n">
         <v>1396.31758174832</v>
@@ -7447,16 +7447,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V41" t="n">
-        <v>1622.966287987609</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="W41" t="n">
-        <v>1622.966287987609</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="X41" t="n">
-        <v>1249.50052972653</v>
+        <v>1194.98675039793</v>
       </c>
       <c r="Y41" t="n">
-        <v>859.3611977507178</v>
+        <v>804.8474184221182</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>328.4043094450358</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="C42" t="n">
-        <v>328.4043094450358</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="D42" t="n">
-        <v>328.4043094450358</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="E42" t="n">
-        <v>169.1668544395803</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F42" t="n">
-        <v>169.1668544395803</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G42" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H42" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I42" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K42" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L42" t="n">
-        <v>505.9483651585071</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M42" t="n">
-        <v>905.3665017627701</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N42" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082801</v>
       </c>
       <c r="O42" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082838</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
@@ -7517,25 +7517,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945774</v>
       </c>
       <c r="T42" t="n">
-        <v>1422.063279093103</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U42" t="n">
-        <v>1193.860611630581</v>
+        <v>1026.358376588746</v>
       </c>
       <c r="V42" t="n">
-        <v>958.7085033988383</v>
+        <v>969.0328470322559</v>
       </c>
       <c r="W42" t="n">
-        <v>704.4711466706367</v>
+        <v>714.7954903040543</v>
       </c>
       <c r="X42" t="n">
-        <v>496.6196464651039</v>
+        <v>714.7954903040543</v>
       </c>
       <c r="Y42" t="n">
-        <v>496.6196464651039</v>
+        <v>507.0351915391004</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C43" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D43" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E43" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F43" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G43" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H43" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I43" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J43" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K43" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L43" t="n">
         <v>107.0302722280248</v>
@@ -7596,25 +7596,25 @@
         <v>194.1667418687506</v>
       </c>
       <c r="S43" t="n">
-        <v>193.9514651575251</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="T43" t="n">
-        <v>193.9514651575251</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="U43" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V43" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W43" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X43" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>442.299297473795</v>
+        <v>828.087550072039</v>
       </c>
       <c r="C44" t="n">
-        <v>442.299297473795</v>
+        <v>828.087550072039</v>
       </c>
       <c r="D44" t="n">
-        <v>442.299297473795</v>
+        <v>828.087550072039</v>
       </c>
       <c r="E44" t="n">
-        <v>442.299297473795</v>
+        <v>442.2992974737948</v>
       </c>
       <c r="F44" t="n">
-        <v>442.299297473795</v>
+        <v>442.2992974737948</v>
       </c>
       <c r="G44" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H44" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I44" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521474</v>
+        <v>70.13987180521428</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011316</v>
+        <v>247.3580469011311</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528323</v>
+        <v>519.4894913528318</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941449</v>
       </c>
       <c r="N44" t="n">
-        <v>1148.836227140252</v>
+        <v>1148.836227140251</v>
       </c>
       <c r="O44" t="n">
         <v>1396.31758174832</v>
@@ -7681,19 +7681,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U44" t="n">
-        <v>1592.504227774808</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V44" t="n">
-        <v>1592.504227774808</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W44" t="n">
-        <v>1592.504227774808</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X44" t="n">
-        <v>1219.038469513729</v>
+        <v>1604.826722111972</v>
       </c>
       <c r="Y44" t="n">
-        <v>828.8991375379168</v>
+        <v>1214.687390136161</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>247.7198513240011</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="C45" t="n">
-        <v>247.7198513240011</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="D45" t="n">
-        <v>247.7198513240011</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="E45" t="n">
-        <v>247.7198513240011</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F45" t="n">
-        <v>247.7198513240011</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G45" t="n">
         <v>222.0882603251556</v>
@@ -7724,55 +7724,55 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I45" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K45" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L45" t="n">
-        <v>147.3709770270843</v>
+        <v>256.6067387278468</v>
       </c>
       <c r="M45" t="n">
-        <v>546.7891136313473</v>
+        <v>656.0248753321098</v>
       </c>
       <c r="N45" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783601</v>
       </c>
       <c r="P45" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945774</v>
       </c>
       <c r="T45" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U45" t="n">
-        <v>944.9608164894784</v>
+        <v>1026.358376588746</v>
       </c>
       <c r="V45" t="n">
-        <v>709.8087082577356</v>
+        <v>791.2062683570034</v>
       </c>
       <c r="W45" t="n">
-        <v>455.571351529534</v>
+        <v>536.9689116288018</v>
       </c>
       <c r="X45" t="n">
-        <v>247.7198513240011</v>
+        <v>536.9689116288018</v>
       </c>
       <c r="Y45" t="n">
-        <v>247.7198513240011</v>
+        <v>507.0351915391004</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>361.2466016029501</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="C46" t="n">
-        <v>361.2466016029501</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="D46" t="n">
-        <v>361.2466016029501</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="E46" t="n">
-        <v>361.2466016029501</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="F46" t="n">
-        <v>361.2466016029501</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="G46" t="n">
-        <v>193.9514651575251</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="H46" t="n">
-        <v>32.45932575975219</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="I46" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J46" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K46" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L46" t="n">
         <v>107.0302722280248</v>
@@ -7836,22 +7836,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>361.2466016029501</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="U46" t="n">
-        <v>361.2466016029501</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="V46" t="n">
-        <v>361.2466016029501</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="W46" t="n">
-        <v>361.2466016029501</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="X46" t="n">
-        <v>361.2466016029501</v>
+        <v>350.8720809166119</v>
       </c>
       <c r="Y46" t="n">
-        <v>361.2466016029501</v>
+        <v>350.8720809166119</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>184.6294155606472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8549,10 +8549,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026374</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L12" t="n">
-        <v>157.1342855878805</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304796</v>
+        <v>270.4206501018625</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9011,16 +9011,16 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L15" t="n">
-        <v>157.1342855878805</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>180.1562595611508</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9245,16 +9245,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>103.505681799068</v>
+        <v>391.3774455544767</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,13 +9485,13 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L21" t="n">
-        <v>296.512727107936</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>391.3774455544766</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9722,7 +9722,7 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>296.512727107936</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>244.1351504444136</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>99.73813450275541</v>
@@ -10196,13 +10196,13 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079358</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>380.7598033349562</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10433,13 +10433,13 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>380.7598033349567</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>447.9178485742653</v>
+        <v>63.84875129258646</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>447.9178485742655</v>
+        <v>63.84875129258599</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172073</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>203.2271928126414</v>
+        <v>63.84875129258575</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720734</v>
+        <v>169.096615172073</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L45" t="n">
-        <v>157.1342855878804</v>
+        <v>296.5127271079353</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304795</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>124.7689717304503</v>
       </c>
       <c r="U11" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>171.264548379899</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23339,19 +23339,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>165.9892454154651</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
         <v>109.1906224126114</v>
@@ -23387,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>63.5186425371006</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>109.6390682700375</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>72.91723044926613</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>350.7952008320255</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>20.50233130349613</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23582,10 +23582,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>130.3977403359211</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.0282495084215</v>
@@ -23624,22 +23624,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>100.4298071486233</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>126.2142705097871</v>
       </c>
       <c r="S16" t="n">
         <v>219.4103988718534</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>179.3898627250243</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>1.134473744809156</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G17" t="n">
-        <v>414.7135041305339</v>
+        <v>342.5772223115267</v>
       </c>
       <c r="H17" t="n">
         <v>333.4403157157206</v>
@@ -23788,13 +23788,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>200.6509426653396</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>129.0329054547695</v>
+        <v>103.8542556278467</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23828,7 +23828,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>46.73791062747657</v>
       </c>
       <c r="G19" t="n">
         <v>167.7266695472104</v>
@@ -23943,16 +23943,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>247.3282077095205</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>146.803863791472</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>142.8270295799721</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24059,10 +24059,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
@@ -24101,7 +24101,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>85.40566091718915</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>28.26144018081175</v>
       </c>
     </row>
     <row r="22">
@@ -24180,16 +24180,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>213.161238575653</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>323.722130418791</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
         <v>195.5929138346465</v>
@@ -24268,10 +24268,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>11.14958439774944</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24338,13 +24338,13 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>85.40566091718961</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>85.40566091718915</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>153.0573756222333</v>
       </c>
       <c r="H25" t="n">
         <v>159.8772180037952</v>
@@ -24411,7 +24411,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R25" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>219.4103988718534</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.33207136595666</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>1.545463123968659</v>
       </c>
       <c r="F26" t="n">
         <v>1.134473744809156</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>207.7898710500858</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>97.59657950753459</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>78.54202280713804</v>
@@ -24572,13 +24572,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>44.15676256702881</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>109.6390682700374</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
-        <v>159.8772180037952</v>
+        <v>149.1265940757378</v>
       </c>
       <c r="I28" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>74.67247646141476</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>8.97193213363164</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>220.5164804230398</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.049560116541784</v>
+        <v>277.4876889784526</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>165.2832744570135</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>85.40566091718964</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>145.207924078818</v>
       </c>
       <c r="G31" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>147.5019580580808</v>
@@ -24885,7 +24885,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>219.4103988718534</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>186.7332506408622</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>118.7087180534579</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>335.1154521603345</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>1.134473744809043</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G32" t="n">
-        <v>8.971932133631526</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
         <v>195.5929138346465</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25004,10 +25004,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.0282495084215</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>18.62548524711421</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>100.8703289058996</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R34" t="n">
-        <v>165.4090611368575</v>
+        <v>126.2142705097871</v>
       </c>
       <c r="S34" t="n">
         <v>219.4103988718534</v>
@@ -25131,13 +25131,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>247.3282077095205</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>335.1154521603344</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>1.134473744809156</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G35" t="n">
-        <v>14.82496384139199</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25241,7 +25241,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25283,16 +25283,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>18.43228645918009</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>76.51755772272278</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>133.6024286833623</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.7266695472104</v>
@@ -25368,13 +25368,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>247.3282077095205</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25399,10 +25399,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
@@ -25450,16 +25450,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>282.2669515726891</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>229.0753385907695</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>81.44718196031815</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>48.82715711062218</v>
       </c>
       <c r="H39" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25532,10 +25532,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25551,28 +25551,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.6024286833623</v>
       </c>
       <c r="G40" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
-        <v>127.3008210000413</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R40" t="n">
         <v>165.4090611368575</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.7729304615888</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.7135041305339</v>
@@ -25687,7 +25687,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>273.783616934822</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25715,19 +25715,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.687796115391592</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,16 +25766,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>176.0483128885</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25803,7 +25803,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
         <v>147.5019580580808</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>219.1972749277402</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3046124576955</v>
+        <v>126.214270509787</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>8.971932133631583</v>
+        <v>8.971932133631753</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -25921,7 +25921,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>221.1410746263955</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>351.7729304615892</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25955,10 +25955,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>111.6529744195644</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>176.0483128885</v>
       </c>
     </row>
     <row r="46">
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>2.104484466239683</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>74.67247646141475</v>
@@ -26076,7 +26076,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8162656893113</v>
+        <v>216.5454902098365</v>
       </c>
       <c r="U46" t="n">
         <v>286.3046124576955</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>529792.1913913389</v>
+        <v>529792.1913913386</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>529792.1913913386</v>
+        <v>529792.1913913387</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>529792.1913913386</v>
+        <v>529792.1913913388</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>529792.1913913385</v>
+        <v>529792.1913913388</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>529792.1913913385</v>
+        <v>529792.1913913388</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>529792.1913913386</v>
+        <v>529792.1913913387</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>529792.1913913386</v>
+        <v>529792.1913913389</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>529792.1913913389</v>
+        <v>529792.1913913386</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>529792.1913913389</v>
+        <v>529792.1913913387</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
+        <v>277717.5661839884</v>
+      </c>
+      <c r="F2" t="n">
         <v>277717.5661839885</v>
       </c>
-      <c r="F2" t="n">
-        <v>277717.5661839886</v>
-      </c>
       <c r="G2" t="n">
-        <v>277717.5661839884</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="H2" t="n">
-        <v>277717.5661839884</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="I2" t="n">
         <v>277717.5661839884</v>
       </c>
       <c r="J2" t="n">
-        <v>277717.5661839885</v>
+        <v>277717.5661839884</v>
       </c>
       <c r="K2" t="n">
         <v>277717.5661839885</v>
       </c>
       <c r="L2" t="n">
-        <v>277717.5661839885</v>
+        <v>277717.5661839884</v>
       </c>
       <c r="M2" t="n">
         <v>277717.5661839884</v>
       </c>
       <c r="N2" t="n">
+        <v>277717.5661839884</v>
+      </c>
+      <c r="O2" t="n">
         <v>277717.5661839885</v>
-      </c>
-      <c r="O2" t="n">
-        <v>277717.5661839886</v>
       </c>
       <c r="P2" t="n">
         <v>277717.5661839886</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.687200998887421e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>337698.1101336324</v>
       </c>
       <c r="E4" t="n">
+        <v>60114.57655225278</v>
+      </c>
+      <c r="F4" t="n">
+        <v>60114.57655225278</v>
+      </c>
+      <c r="G4" t="n">
         <v>60114.57655225279</v>
-      </c>
-      <c r="F4" t="n">
-        <v>60114.57655225279</v>
-      </c>
-      <c r="G4" t="n">
-        <v>60114.57655225278</v>
       </c>
       <c r="H4" t="n">
         <v>60114.57655225279</v>
       </c>
       <c r="I4" t="n">
-        <v>60114.57655225278</v>
+        <v>60114.57655225279</v>
       </c>
       <c r="J4" t="n">
         <v>60114.57655225278</v>
       </c>
       <c r="K4" t="n">
-        <v>60114.57655225278</v>
+        <v>60114.57655225279</v>
       </c>
       <c r="L4" t="n">
         <v>60114.57655225279</v>
       </c>
       <c r="M4" t="n">
-        <v>60114.57655225278</v>
+        <v>60114.57655225279</v>
       </c>
       <c r="N4" t="n">
         <v>60114.57655225278</v>
       </c>
       <c r="O4" t="n">
-        <v>60114.57655225278</v>
+        <v>60114.57655225277</v>
       </c>
       <c r="P4" t="n">
-        <v>60114.57655225278</v>
+        <v>60114.57655225277</v>
       </c>
     </row>
     <row r="5">
@@ -26484,13 +26484,13 @@
         <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
+        <v>27864.35291375757</v>
+      </c>
+      <c r="H5" t="n">
         <v>27864.35291375756</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>27864.35291375757</v>
-      </c>
-      <c r="I5" t="n">
-        <v>27864.35291375756</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375756</v>
@@ -26502,16 +26502,16 @@
         <v>27864.35291375757</v>
       </c>
       <c r="M5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="N5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="O5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="P5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66928.33998284244</v>
+        <v>66928.33998284233</v>
       </c>
       <c r="C6" t="n">
-        <v>147697.7715143898</v>
+        <v>147697.7715143901</v>
       </c>
       <c r="D6" t="n">
         <v>147697.7715143901</v>
       </c>
       <c r="E6" t="n">
-        <v>12953.86719935467</v>
+        <v>21814.00665339368</v>
       </c>
       <c r="F6" t="n">
-        <v>179894.0373246015</v>
+        <v>188754.1767786405</v>
       </c>
       <c r="G6" t="n">
-        <v>179894.0373246013</v>
+        <v>188754.1767786404</v>
       </c>
       <c r="H6" t="n">
-        <v>179894.0373246013</v>
+        <v>188754.1767786405</v>
       </c>
       <c r="I6" t="n">
-        <v>179894.0373246013</v>
+        <v>188754.1767786404</v>
       </c>
       <c r="J6" t="n">
-        <v>116834.0947254952</v>
+        <v>125694.2341795342</v>
       </c>
       <c r="K6" t="n">
-        <v>179894.0373246014</v>
+        <v>188754.1767786405</v>
       </c>
       <c r="L6" t="n">
-        <v>179894.0373246014</v>
+        <v>188754.1767786404</v>
       </c>
       <c r="M6" t="n">
-        <v>138843.3394621534</v>
+        <v>147703.4789161924</v>
       </c>
       <c r="N6" t="n">
-        <v>179894.0373246013</v>
+        <v>188754.1767786404</v>
       </c>
       <c r="O6" t="n">
-        <v>179894.0373246015</v>
+        <v>188754.1767786405</v>
       </c>
       <c r="P6" t="n">
-        <v>179894.0373246015</v>
+        <v>188754.1767786406</v>
       </c>
     </row>
   </sheetData>
@@ -26773,7 +26773,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="N3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="O3" t="n">
         <v>146.5718044195371</v>
@@ -26807,10 +26807,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H4" t="n">
+        <v>405.7415719969023</v>
+      </c>
+      <c r="I4" t="n">
         <v>405.7415719969024</v>
-      </c>
-      <c r="I4" t="n">
-        <v>405.7415719969023</v>
       </c>
       <c r="J4" t="n">
         <v>405.7415719969023</v>
@@ -26819,19 +26819,19 @@
         <v>405.7415719969023</v>
       </c>
       <c r="L4" t="n">
+        <v>405.7415719969023</v>
+      </c>
+      <c r="M4" t="n">
         <v>405.7415719969024</v>
-      </c>
-      <c r="M4" t="n">
-        <v>405.7415719969023</v>
       </c>
       <c r="N4" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969022</v>
       </c>
       <c r="P4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969022</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.710126785080329e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192432</v>
+        <v>164.7272831192433</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.710126785080329e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>231.8333861825618</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>267.0043036912184</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.21265849058487</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>61.07666082776976</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>71.63594515755861</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>201.982606264288</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27624,22 +27624,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>333.2456655029306</v>
+        <v>369.7532147690989</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,22 +27703,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>170.1725485038624</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>50.63124553559595</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>34.50357226344606</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257802004</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>319.1698855250446</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>169.9996104372708</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27934,13 +27934,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27955,7 +27955,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27991,10 +27991,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>134.1165501573329</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28028,7 +28028,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28064,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O12" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31934,7 +31934,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31943,16 +31943,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33885,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I38" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J38" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438474</v>
@@ -33909,16 +33909,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R38" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S38" t="n">
         <v>13.4271557515988</v>
@@ -33927,7 +33927,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H39" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M39" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O39" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R39" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T39" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,40 +34046,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I40" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K40" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L40" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M40" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O40" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R40" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T40" t="n">
         <v>1.129323738970203</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>46.78797658628819</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35269,10 +35269,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>87.03308673054582</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>221.0748005682852</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>87.03308673054582</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
         <v>403.4526632366293</v>
@@ -35740,7 +35740,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
-        <v>326.276269873291</v>
+        <v>112.5702101577123</v>
       </c>
       <c r="P15" t="n">
         <v>244.6906557616239</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>41.25328128569732</v>
+        <v>329.125045041106</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969023</v>
@@ -35983,7 +35983,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>226.4115282506013</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>329.1250450411059</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506013</v>
       </c>
       <c r="M24" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506011</v>
       </c>
       <c r="M30" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>331.4139538013789</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -37153,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
-        <v>331.4139538013793</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K36" t="n">
         <v>177.5326105223149</v>
@@ -37396,16 +37396,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>398.571999040688</v>
+        <v>14.50290175900908</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
@@ -37563,7 +37563,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K39" t="n">
         <v>177.5326105223149</v>
@@ -37633,16 +37633,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>398.5719990406881</v>
+        <v>14.50290175900862</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L40" t="n">
         <v>66.88568574354744</v>
@@ -37715,10 +37715,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O40" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P40" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167889</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726433</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K42" t="n">
         <v>177.5326105223149</v>
@@ -37870,7 +37870,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
-        <v>153.881343279064</v>
+        <v>14.50290175900839</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
@@ -37879,7 +37879,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167934</v>
+        <v>38.06115762167889</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726433</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>87.03308673054569</v>
+        <v>226.4115282506006</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N45" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969022</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
@@ -38116,7 +38116,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
